--- a/static/csv/age-structure-statbel.xlsx
+++ b/static/csv/age-structure-statbel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5397FBC-2479-2B49-B881-85E6E603A0CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11A05AA-A485-3340-A63F-2943C2B31A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="2240" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="age-structure" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>5-9 jaar</t>
   </si>
@@ -106,12 +106,6 @@
     <t>lower-bound</t>
   </si>
   <si>
-    <t>18-34</t>
-  </si>
-  <si>
-    <t>0-17</t>
-  </si>
-  <si>
     <t>35-44</t>
   </si>
   <si>
@@ -140,6 +134,18 @@
   </si>
   <si>
     <t>Brussels</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16-17</t>
+  </si>
+  <si>
+    <t>18-24</t>
+  </si>
+  <si>
+    <t>25-34</t>
   </si>
 </sst>
 </file>
@@ -236,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -247,6 +253,7 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,7 +596,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -612,25 +619,25 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
       <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -652,20 +659,8 @@
       <c r="F2" s="8">
         <v>42430</v>
       </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="5">
-        <f>SUM(D2:D9)</f>
-        <v>839121</v>
-      </c>
-      <c r="K2" s="5">
-        <f t="shared" ref="K2:L2" si="0">SUM(E2:E9)</f>
-        <v>1425998</v>
-      </c>
-      <c r="L2" s="5">
-        <f t="shared" si="0"/>
-        <v>304203</v>
+      <c r="I2" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -687,20 +682,8 @@
       <c r="F3" s="9">
         <v>40538</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="5">
-        <f>SUM(D10:D15)</f>
-        <v>677681</v>
-      </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:L3" si="1">SUM(E10:E15)</f>
-        <v>1187394</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" si="1"/>
-        <v>285939</v>
+      <c r="I3" s="10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -722,20 +705,20 @@
       <c r="F4" s="9">
         <v>41285</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
+      <c r="I4" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="J4" s="5">
-        <f>SUM(D16:D19)</f>
-        <v>457298</v>
+        <f>SUM(D2:D9)</f>
+        <v>839121</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:L4" si="2">SUM(E16:E19)</f>
-        <v>842109</v>
+        <f>SUM(E2:E9)</f>
+        <v>1425998</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" si="2"/>
-        <v>186386</v>
+        <f>SUM(F2:F9)</f>
+        <v>304203</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -757,20 +740,20 @@
       <c r="F5" s="9">
         <v>39488</v>
       </c>
-      <c r="I5" t="s">
-        <v>29</v>
+      <c r="I5" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="J5" s="5">
-        <f>SUM(D20:D23)</f>
-        <v>498609</v>
+        <f>SUM(D12:D15)</f>
+        <v>458498</v>
       </c>
       <c r="K5" s="5">
-        <f t="shared" ref="K5:L5" si="3">SUM(E20:E23)</f>
-        <v>900799</v>
+        <f>SUM(E12:E15)</f>
+        <v>815666</v>
       </c>
       <c r="L5" s="5">
-        <f t="shared" si="3"/>
-        <v>159151</v>
+        <f>SUM(F12:F15)</f>
+        <v>208674</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -792,20 +775,20 @@
       <c r="F6" s="9">
         <v>37695</v>
       </c>
-      <c r="I6" t="s">
-        <v>30</v>
+      <c r="I6" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="J6" s="5">
-        <f>SUM(D24:D27)</f>
-        <v>485180</v>
+        <f>SUM(D16:D19)</f>
+        <v>457298</v>
       </c>
       <c r="K6" s="5">
-        <f t="shared" ref="K6:L6" si="4">SUM(E24:E27)</f>
-        <v>915312</v>
+        <f>SUM(E16:E19)</f>
+        <v>842109</v>
       </c>
       <c r="L6" s="5">
-        <f t="shared" si="4"/>
-        <v>122983</v>
+        <f>SUM(F16:F19)</f>
+        <v>186386</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -827,20 +810,20 @@
       <c r="F7" s="9">
         <v>36143</v>
       </c>
-      <c r="I7" t="s">
-        <v>31</v>
+      <c r="I7" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="J7" s="5">
-        <f>SUM(D28:D31)</f>
-        <v>384803</v>
+        <f>SUM(D20:D23)</f>
+        <v>498609</v>
       </c>
       <c r="K7" s="5">
-        <f t="shared" ref="K7:L7" si="5">SUM(E28:E31)</f>
-        <v>703016</v>
+        <f>SUM(E20:E23)</f>
+        <v>900799</v>
       </c>
       <c r="L7" s="5">
-        <f t="shared" si="5"/>
-        <v>82580</v>
+        <f>SUM(F20:F23)</f>
+        <v>159151</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -862,20 +845,20 @@
       <c r="F8" s="9">
         <v>34051</v>
       </c>
-      <c r="I8" t="s">
-        <v>32</v>
+      <c r="I8" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="J8" s="5">
-        <f>SUM(D32:D35)</f>
-        <v>203035</v>
+        <f>SUM(D24:D27)</f>
+        <v>485180</v>
       </c>
       <c r="K8" s="5">
-        <f t="shared" ref="K8:L8" si="6">SUM(E32:E35)</f>
-        <v>445506</v>
+        <f>SUM(E24:E27)</f>
+        <v>915312</v>
       </c>
       <c r="L8" s="5">
-        <f t="shared" si="6"/>
-        <v>50399</v>
+        <f>SUM(F24:F27)</f>
+        <v>122983</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -897,20 +880,20 @@
       <c r="F9" s="9">
         <v>32573</v>
       </c>
-      <c r="I9" t="s">
-        <v>33</v>
+      <c r="I9" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="J9" s="5">
-        <f>SUM(D36:D43)</f>
-        <v>99516</v>
+        <f>SUM(D28:D31)</f>
+        <v>384803</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" ref="K9:L9" si="7">SUM(E36:E43)</f>
-        <v>209009</v>
+        <f>SUM(E28:E31)</f>
+        <v>703016</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="7"/>
-        <v>26614</v>
+        <f>SUM(F28:F31)</f>
+        <v>82580</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -932,6 +915,21 @@
       <c r="F10" s="9">
         <v>37996</v>
       </c>
+      <c r="I10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="5">
+        <f>SUM(D32:D35)</f>
+        <v>203035</v>
+      </c>
+      <c r="K10" s="5">
+        <f>SUM(E32:E35)</f>
+        <v>445506</v>
+      </c>
+      <c r="L10" s="5">
+        <f>SUM(F32:F35)</f>
+        <v>50399</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
@@ -951,6 +949,21 @@
       </c>
       <c r="F11" s="9">
         <v>39269</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="5">
+        <f>SUM(D36:D43)</f>
+        <v>99516</v>
+      </c>
+      <c r="K11" s="5">
+        <f>SUM(E36:E43)</f>
+        <v>209009</v>
+      </c>
+      <c r="L11" s="5">
+        <f>SUM(F36:F43)</f>
+        <v>26614</v>
       </c>
     </row>
     <row r="12" spans="1:12">
